--- a/Analisys.xlsx
+++ b/Analisys.xlsx
@@ -503,7 +503,7 @@
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>MIN_MD_vs_Conc.(uBq/m3)</t>
+          <t>MDA_vs_Conc.(uBq/m3)</t>
         </is>
       </c>
     </row>
@@ -629,7 +629,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>EXPECTED</t>
+          <t>ABOVE</t>
         </is>
       </c>
     </row>
@@ -755,7 +755,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>EXPECTED</t>
+          <t>ABOVE</t>
         </is>
       </c>
     </row>
@@ -881,7 +881,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>WARNING</t>
+          <t>BELOW</t>
         </is>
       </c>
     </row>
@@ -1007,7 +1007,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>EXPECTED</t>
+          <t>ABOVE</t>
         </is>
       </c>
     </row>
@@ -1133,7 +1133,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>EXPECTED</t>
+          <t>ABOVE</t>
         </is>
       </c>
     </row>
@@ -1259,7 +1259,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>WARNING</t>
+          <t>BELOW</t>
         </is>
       </c>
     </row>
@@ -1385,7 +1385,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>WARNING</t>
+          <t>BELOW</t>
         </is>
       </c>
     </row>
@@ -1511,7 +1511,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>EXPECTED</t>
+          <t>ABOVE</t>
         </is>
       </c>
     </row>
@@ -1637,7 +1637,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>WARNING</t>
+          <t>BELOW</t>
         </is>
       </c>
     </row>
@@ -1763,7 +1763,7 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>EXPECTED</t>
+          <t>ABOVE</t>
         </is>
       </c>
     </row>
@@ -1889,7 +1889,7 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>EXPECTED</t>
+          <t>ABOVE</t>
         </is>
       </c>
     </row>
@@ -2015,7 +2015,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>EXPECTED</t>
+          <t>ABOVE</t>
         </is>
       </c>
     </row>
@@ -2141,7 +2141,7 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>EXPECTED</t>
+          <t>ABOVE</t>
         </is>
       </c>
     </row>
@@ -2267,7 +2267,7 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>EXPECTED</t>
+          <t>ABOVE</t>
         </is>
       </c>
     </row>
@@ -2393,7 +2393,7 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>EXPECTED</t>
+          <t>ABOVE</t>
         </is>
       </c>
     </row>
@@ -2519,7 +2519,7 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>EXPECTED</t>
+          <t>ABOVE</t>
         </is>
       </c>
     </row>
@@ -2645,7 +2645,7 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>EXPECTED</t>
+          <t>ABOVE</t>
         </is>
       </c>
     </row>
@@ -2771,7 +2771,7 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>EXPECTED</t>
+          <t>ABOVE</t>
         </is>
       </c>
     </row>
@@ -2897,7 +2897,7 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>WARNING</t>
+          <t>BELOW</t>
         </is>
       </c>
     </row>
@@ -3023,7 +3023,7 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>WARNING</t>
+          <t>BELOW</t>
         </is>
       </c>
     </row>
@@ -3149,7 +3149,7 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>WARNING</t>
+          <t>BELOW</t>
         </is>
       </c>
     </row>
@@ -3275,7 +3275,7 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>WARNING</t>
+          <t>BELOW</t>
         </is>
       </c>
     </row>
@@ -3401,7 +3401,7 @@
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>EXPECTED</t>
+          <t>ABOVE</t>
         </is>
       </c>
     </row>
@@ -3527,7 +3527,7 @@
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>EXPECTED</t>
+          <t>ABOVE</t>
         </is>
       </c>
     </row>
@@ -3653,7 +3653,7 @@
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>EXPECTED</t>
+          <t>ABOVE</t>
         </is>
       </c>
     </row>
@@ -3779,7 +3779,7 @@
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>EXPECTED</t>
+          <t>ABOVE</t>
         </is>
       </c>
     </row>
@@ -3905,7 +3905,7 @@
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>WARNING</t>
+          <t>BELOW</t>
         </is>
       </c>
     </row>
@@ -4031,7 +4031,7 @@
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>EXPECTED</t>
+          <t>ABOVE</t>
         </is>
       </c>
     </row>
@@ -4157,7 +4157,7 @@
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>EXPECTED</t>
+          <t>ABOVE</t>
         </is>
       </c>
     </row>
@@ -4283,7 +4283,7 @@
       </c>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>WARNING</t>
+          <t>BELOW</t>
         </is>
       </c>
     </row>
@@ -4409,7 +4409,7 @@
       </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>EXPECTED</t>
+          <t>ABOVE</t>
         </is>
       </c>
     </row>
@@ -4535,7 +4535,7 @@
       </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>EXPECTED</t>
+          <t>ABOVE</t>
         </is>
       </c>
     </row>
@@ -4661,7 +4661,7 @@
       </c>
       <c r="AB34" t="inlineStr">
         <is>
-          <t>EXPECTED</t>
+          <t>ABOVE</t>
         </is>
       </c>
     </row>
@@ -4787,7 +4787,7 @@
       </c>
       <c r="AB35" t="inlineStr">
         <is>
-          <t>EXPECTED</t>
+          <t>ABOVE</t>
         </is>
       </c>
     </row>
@@ -4913,7 +4913,7 @@
       </c>
       <c r="AB36" t="inlineStr">
         <is>
-          <t>WARNING</t>
+          <t>BELOW</t>
         </is>
       </c>
     </row>
@@ -5039,7 +5039,7 @@
       </c>
       <c r="AB37" t="inlineStr">
         <is>
-          <t>EXPECTED</t>
+          <t>ABOVE</t>
         </is>
       </c>
     </row>
@@ -5165,7 +5165,7 @@
       </c>
       <c r="AB38" t="inlineStr">
         <is>
-          <t>WARNING</t>
+          <t>BELOW</t>
         </is>
       </c>
     </row>
@@ -5291,7 +5291,7 @@
       </c>
       <c r="AB39" t="inlineStr">
         <is>
-          <t>EXPECTED</t>
+          <t>ABOVE</t>
         </is>
       </c>
     </row>
@@ -5417,7 +5417,7 @@
       </c>
       <c r="AB40" t="inlineStr">
         <is>
-          <t>WARNING</t>
+          <t>BELOW</t>
         </is>
       </c>
     </row>
@@ -5543,7 +5543,7 @@
       </c>
       <c r="AB41" t="inlineStr">
         <is>
-          <t>WARNING</t>
+          <t>BELOW</t>
         </is>
       </c>
     </row>
@@ -5669,7 +5669,7 @@
       </c>
       <c r="AB42" t="inlineStr">
         <is>
-          <t>EXPECTED</t>
+          <t>ABOVE</t>
         </is>
       </c>
     </row>
@@ -5795,7 +5795,7 @@
       </c>
       <c r="AB43" t="inlineStr">
         <is>
-          <t>WARNING</t>
+          <t>BELOW</t>
         </is>
       </c>
     </row>
@@ -5921,7 +5921,7 @@
       </c>
       <c r="AB44" t="inlineStr">
         <is>
-          <t>EXPECTED</t>
+          <t>ABOVE</t>
         </is>
       </c>
     </row>
@@ -6047,7 +6047,7 @@
       </c>
       <c r="AB45" t="inlineStr">
         <is>
-          <t>EXPECTED</t>
+          <t>ABOVE</t>
         </is>
       </c>
     </row>
@@ -6173,7 +6173,7 @@
       </c>
       <c r="AB46" t="inlineStr">
         <is>
-          <t>EXPECTED</t>
+          <t>ABOVE</t>
         </is>
       </c>
     </row>
@@ -6299,7 +6299,7 @@
       </c>
       <c r="AB47" t="inlineStr">
         <is>
-          <t>WARNING</t>
+          <t>BELOW</t>
         </is>
       </c>
     </row>
@@ -6425,7 +6425,7 @@
       </c>
       <c r="AB48" t="inlineStr">
         <is>
-          <t>WARNING</t>
+          <t>BELOW</t>
         </is>
       </c>
     </row>
@@ -6551,7 +6551,7 @@
       </c>
       <c r="AB49" t="inlineStr">
         <is>
-          <t>WARNING</t>
+          <t>BELOW</t>
         </is>
       </c>
     </row>
@@ -6677,7 +6677,7 @@
       </c>
       <c r="AB50" t="inlineStr">
         <is>
-          <t>WARNING</t>
+          <t>BELOW</t>
         </is>
       </c>
     </row>
@@ -6803,7 +6803,7 @@
       </c>
       <c r="AB51" t="inlineStr">
         <is>
-          <t>EXPECTED</t>
+          <t>ABOVE</t>
         </is>
       </c>
     </row>
@@ -6929,7 +6929,7 @@
       </c>
       <c r="AB52" t="inlineStr">
         <is>
-          <t>EXPECTED</t>
+          <t>ABOVE</t>
         </is>
       </c>
     </row>
@@ -7055,7 +7055,7 @@
       </c>
       <c r="AB53" t="inlineStr">
         <is>
-          <t>WARNING</t>
+          <t>BELOW</t>
         </is>
       </c>
     </row>
@@ -7181,7 +7181,7 @@
       </c>
       <c r="AB54" t="inlineStr">
         <is>
-          <t>EXPECTED</t>
+          <t>ABOVE</t>
         </is>
       </c>
     </row>
@@ -7307,7 +7307,7 @@
       </c>
       <c r="AB55" t="inlineStr">
         <is>
-          <t>EXPECTED</t>
+          <t>ABOVE</t>
         </is>
       </c>
     </row>
@@ -7433,7 +7433,7 @@
       </c>
       <c r="AB56" t="inlineStr">
         <is>
-          <t>EXPECTED</t>
+          <t>ABOVE</t>
         </is>
       </c>
     </row>
@@ -7559,7 +7559,7 @@
       </c>
       <c r="AB57" t="inlineStr">
         <is>
-          <t>EXPECTED</t>
+          <t>ABOVE</t>
         </is>
       </c>
     </row>
@@ -7685,7 +7685,7 @@
       </c>
       <c r="AB58" t="inlineStr">
         <is>
-          <t>EXPECTED</t>
+          <t>ABOVE</t>
         </is>
       </c>
     </row>
@@ -7811,7 +7811,7 @@
       </c>
       <c r="AB59" t="inlineStr">
         <is>
-          <t>EXPECTED</t>
+          <t>ABOVE</t>
         </is>
       </c>
     </row>
@@ -7937,7 +7937,7 @@
       </c>
       <c r="AB60" t="inlineStr">
         <is>
-          <t>EXPECTED</t>
+          <t>ABOVE</t>
         </is>
       </c>
     </row>
@@ -8063,7 +8063,7 @@
       </c>
       <c r="AB61" t="inlineStr">
         <is>
-          <t>EXPECTED</t>
+          <t>ABOVE</t>
         </is>
       </c>
     </row>
@@ -8189,7 +8189,7 @@
       </c>
       <c r="AB62" t="inlineStr">
         <is>
-          <t>EXPECTED</t>
+          <t>ABOVE</t>
         </is>
       </c>
     </row>
@@ -8315,7 +8315,7 @@
       </c>
       <c r="AB63" t="inlineStr">
         <is>
-          <t>EXPECTED</t>
+          <t>ABOVE</t>
         </is>
       </c>
     </row>
@@ -8441,7 +8441,7 @@
       </c>
       <c r="AB64" t="inlineStr">
         <is>
-          <t>EXPECTED</t>
+          <t>ABOVE</t>
         </is>
       </c>
     </row>
@@ -8567,7 +8567,7 @@
       </c>
       <c r="AB65" t="inlineStr">
         <is>
-          <t>EXPECTED</t>
+          <t>ABOVE</t>
         </is>
       </c>
     </row>
@@ -8693,7 +8693,7 @@
       </c>
       <c r="AB66" t="inlineStr">
         <is>
-          <t>EXPECTED</t>
+          <t>ABOVE</t>
         </is>
       </c>
     </row>
@@ -8819,7 +8819,7 @@
       </c>
       <c r="AB67" t="inlineStr">
         <is>
-          <t>EXPECTED</t>
+          <t>ABOVE</t>
         </is>
       </c>
     </row>
@@ -8945,7 +8945,7 @@
       </c>
       <c r="AB68" t="inlineStr">
         <is>
-          <t>WARNING</t>
+          <t>BELOW</t>
         </is>
       </c>
     </row>
@@ -9071,7 +9071,7 @@
       </c>
       <c r="AB69" t="inlineStr">
         <is>
-          <t>EXPECTED</t>
+          <t>ABOVE</t>
         </is>
       </c>
     </row>
@@ -9197,7 +9197,7 @@
       </c>
       <c r="AB70" t="inlineStr">
         <is>
-          <t>EXPECTED</t>
+          <t>ABOVE</t>
         </is>
       </c>
     </row>
@@ -9323,7 +9323,7 @@
       </c>
       <c r="AB71" t="inlineStr">
         <is>
-          <t>EXPECTED</t>
+          <t>ABOVE</t>
         </is>
       </c>
     </row>
@@ -9449,7 +9449,7 @@
       </c>
       <c r="AB72" t="inlineStr">
         <is>
-          <t>EXPECTED</t>
+          <t>ABOVE</t>
         </is>
       </c>
     </row>
@@ -9575,7 +9575,7 @@
       </c>
       <c r="AB73" t="inlineStr">
         <is>
-          <t>EXPECTED</t>
+          <t>ABOVE</t>
         </is>
       </c>
     </row>
@@ -9701,7 +9701,7 @@
       </c>
       <c r="AB74" t="inlineStr">
         <is>
-          <t>EXPECTED</t>
+          <t>ABOVE</t>
         </is>
       </c>
     </row>
@@ -9827,7 +9827,7 @@
       </c>
       <c r="AB75" t="inlineStr">
         <is>
-          <t>WARNING</t>
+          <t>BELOW</t>
         </is>
       </c>
     </row>
@@ -9953,7 +9953,7 @@
       </c>
       <c r="AB76" t="inlineStr">
         <is>
-          <t>WARNING</t>
+          <t>BELOW</t>
         </is>
       </c>
     </row>
@@ -10079,7 +10079,7 @@
       </c>
       <c r="AB77" t="inlineStr">
         <is>
-          <t>EXPECTED</t>
+          <t>ABOVE</t>
         </is>
       </c>
     </row>
@@ -10205,7 +10205,7 @@
       </c>
       <c r="AB78" t="inlineStr">
         <is>
-          <t>WARNING</t>
+          <t>BELOW</t>
         </is>
       </c>
     </row>
@@ -10331,7 +10331,7 @@
       </c>
       <c r="AB79" t="inlineStr">
         <is>
-          <t>WARNING</t>
+          <t>BELOW</t>
         </is>
       </c>
     </row>
@@ -10457,7 +10457,7 @@
       </c>
       <c r="AB80" t="inlineStr">
         <is>
-          <t>EXPECTED</t>
+          <t>ABOVE</t>
         </is>
       </c>
     </row>
@@ -10583,7 +10583,7 @@
       </c>
       <c r="AB81" t="inlineStr">
         <is>
-          <t>EXPECTED</t>
+          <t>ABOVE</t>
         </is>
       </c>
     </row>
@@ -10709,7 +10709,7 @@
       </c>
       <c r="AB82" t="inlineStr">
         <is>
-          <t>EXPECTED</t>
+          <t>ABOVE</t>
         </is>
       </c>
     </row>
@@ -10835,7 +10835,7 @@
       </c>
       <c r="AB83" t="inlineStr">
         <is>
-          <t>WARNING</t>
+          <t>BELOW</t>
         </is>
       </c>
     </row>
@@ -10961,7 +10961,7 @@
       </c>
       <c r="AB84" t="inlineStr">
         <is>
-          <t>EXPECTED</t>
+          <t>ABOVE</t>
         </is>
       </c>
     </row>
@@ -11087,7 +11087,7 @@
       </c>
       <c r="AB85" t="inlineStr">
         <is>
-          <t>WARNING</t>
+          <t>BELOW</t>
         </is>
       </c>
     </row>
@@ -11213,7 +11213,7 @@
       </c>
       <c r="AB86" t="inlineStr">
         <is>
-          <t>WARNING</t>
+          <t>BELOW</t>
         </is>
       </c>
     </row>
@@ -11339,7 +11339,7 @@
       </c>
       <c r="AB87" t="inlineStr">
         <is>
-          <t>EXPECTED</t>
+          <t>ABOVE</t>
         </is>
       </c>
     </row>
@@ -11465,7 +11465,7 @@
       </c>
       <c r="AB88" t="inlineStr">
         <is>
-          <t>EXPECTED</t>
+          <t>ABOVE</t>
         </is>
       </c>
     </row>
@@ -11591,7 +11591,7 @@
       </c>
       <c r="AB89" t="inlineStr">
         <is>
-          <t>EXPECTED</t>
+          <t>ABOVE</t>
         </is>
       </c>
     </row>
@@ -11717,7 +11717,7 @@
       </c>
       <c r="AB90" t="inlineStr">
         <is>
-          <t>EXPECTED</t>
+          <t>ABOVE</t>
         </is>
       </c>
     </row>
@@ -11841,7 +11841,7 @@
       </c>
       <c r="AB91" t="inlineStr">
         <is>
-          <t>EXPECTED</t>
+          <t>ABOVE</t>
         </is>
       </c>
     </row>
@@ -11967,7 +11967,7 @@
       </c>
       <c r="AB92" t="inlineStr">
         <is>
-          <t>WARNING</t>
+          <t>BELOW</t>
         </is>
       </c>
     </row>
@@ -12093,7 +12093,7 @@
       </c>
       <c r="AB93" t="inlineStr">
         <is>
-          <t>EXPECTED</t>
+          <t>ABOVE</t>
         </is>
       </c>
     </row>
@@ -12219,7 +12219,7 @@
       </c>
       <c r="AB94" t="inlineStr">
         <is>
-          <t>EXPECTED</t>
+          <t>ABOVE</t>
         </is>
       </c>
     </row>
@@ -12345,7 +12345,7 @@
       </c>
       <c r="AB95" t="inlineStr">
         <is>
-          <t>EXPECTED</t>
+          <t>ABOVE</t>
         </is>
       </c>
     </row>
@@ -12471,7 +12471,7 @@
       </c>
       <c r="AB96" t="inlineStr">
         <is>
-          <t>EXPECTED</t>
+          <t>ABOVE</t>
         </is>
       </c>
     </row>
@@ -12597,7 +12597,7 @@
       </c>
       <c r="AB97" t="inlineStr">
         <is>
-          <t>EXPECTED</t>
+          <t>ABOVE</t>
         </is>
       </c>
     </row>
@@ -12723,7 +12723,7 @@
       </c>
       <c r="AB98" t="inlineStr">
         <is>
-          <t>EXPECTED</t>
+          <t>ABOVE</t>
         </is>
       </c>
     </row>
@@ -12849,7 +12849,7 @@
       </c>
       <c r="AB99" t="inlineStr">
         <is>
-          <t>EXPECTED</t>
+          <t>ABOVE</t>
         </is>
       </c>
     </row>
@@ -12975,7 +12975,7 @@
       </c>
       <c r="AB100" t="inlineStr">
         <is>
-          <t>EXPECTED</t>
+          <t>ABOVE</t>
         </is>
       </c>
     </row>
@@ -13101,7 +13101,7 @@
       </c>
       <c r="AB101" t="inlineStr">
         <is>
-          <t>EXPECTED</t>
+          <t>ABOVE</t>
         </is>
       </c>
     </row>
@@ -13227,7 +13227,7 @@
       </c>
       <c r="AB102" t="inlineStr">
         <is>
-          <t>EXPECTED</t>
+          <t>ABOVE</t>
         </is>
       </c>
     </row>
@@ -13353,7 +13353,7 @@
       </c>
       <c r="AB103" t="inlineStr">
         <is>
-          <t>EXPECTED</t>
+          <t>ABOVE</t>
         </is>
       </c>
     </row>
@@ -13479,7 +13479,7 @@
       </c>
       <c r="AB104" t="inlineStr">
         <is>
-          <t>EXPECTED</t>
+          <t>ABOVE</t>
         </is>
       </c>
     </row>
@@ -13605,7 +13605,7 @@
       </c>
       <c r="AB105" t="inlineStr">
         <is>
-          <t>WARNING</t>
+          <t>BELOW</t>
         </is>
       </c>
     </row>
@@ -13731,7 +13731,7 @@
       </c>
       <c r="AB106" t="inlineStr">
         <is>
-          <t>EXPECTED</t>
+          <t>ABOVE</t>
         </is>
       </c>
     </row>
@@ -13857,7 +13857,7 @@
       </c>
       <c r="AB107" t="inlineStr">
         <is>
-          <t>EXPECTED</t>
+          <t>ABOVE</t>
         </is>
       </c>
     </row>
@@ -13983,7 +13983,7 @@
       </c>
       <c r="AB108" t="inlineStr">
         <is>
-          <t>WARNING</t>
+          <t>BELOW</t>
         </is>
       </c>
     </row>
@@ -14109,7 +14109,7 @@
       </c>
       <c r="AB109" t="inlineStr">
         <is>
-          <t>EXPECTED</t>
+          <t>ABOVE</t>
         </is>
       </c>
     </row>
@@ -14235,7 +14235,7 @@
       </c>
       <c r="AB110" t="inlineStr">
         <is>
-          <t>WARNING</t>
+          <t>BELOW</t>
         </is>
       </c>
     </row>
@@ -14361,7 +14361,7 @@
       </c>
       <c r="AB111" t="inlineStr">
         <is>
-          <t>WARNING</t>
+          <t>BELOW</t>
         </is>
       </c>
     </row>
@@ -14487,7 +14487,7 @@
       </c>
       <c r="AB112" t="inlineStr">
         <is>
-          <t>EXPECTED</t>
+          <t>ABOVE</t>
         </is>
       </c>
     </row>
@@ -14613,7 +14613,7 @@
       </c>
       <c r="AB113" t="inlineStr">
         <is>
-          <t>EXPECTED</t>
+          <t>ABOVE</t>
         </is>
       </c>
     </row>
@@ -14739,7 +14739,7 @@
       </c>
       <c r="AB114" t="inlineStr">
         <is>
-          <t>WARNING</t>
+          <t>BELOW</t>
         </is>
       </c>
     </row>
@@ -14865,7 +14865,7 @@
       </c>
       <c r="AB115" t="inlineStr">
         <is>
-          <t>EXPECTED</t>
+          <t>ABOVE</t>
         </is>
       </c>
     </row>
@@ -14991,7 +14991,7 @@
       </c>
       <c r="AB116" t="inlineStr">
         <is>
-          <t>EXPECTED</t>
+          <t>ABOVE</t>
         </is>
       </c>
     </row>
@@ -15117,7 +15117,7 @@
       </c>
       <c r="AB117" t="inlineStr">
         <is>
-          <t>EXPECTED</t>
+          <t>ABOVE</t>
         </is>
       </c>
     </row>
@@ -15243,7 +15243,7 @@
       </c>
       <c r="AB118" t="inlineStr">
         <is>
-          <t>EXPECTED</t>
+          <t>ABOVE</t>
         </is>
       </c>
     </row>
@@ -15369,7 +15369,7 @@
       </c>
       <c r="AB119" t="inlineStr">
         <is>
-          <t>EXPECTED</t>
+          <t>ABOVE</t>
         </is>
       </c>
     </row>
@@ -15495,7 +15495,7 @@
       </c>
       <c r="AB120" t="inlineStr">
         <is>
-          <t>EXPECTED</t>
+          <t>ABOVE</t>
         </is>
       </c>
     </row>
@@ -15621,7 +15621,7 @@
       </c>
       <c r="AB121" t="inlineStr">
         <is>
-          <t>WARNING</t>
+          <t>BELOW</t>
         </is>
       </c>
     </row>
@@ -15747,7 +15747,7 @@
       </c>
       <c r="AB122" t="inlineStr">
         <is>
-          <t>WARNING</t>
+          <t>BELOW</t>
         </is>
       </c>
     </row>
@@ -15873,7 +15873,7 @@
       </c>
       <c r="AB123" t="inlineStr">
         <is>
-          <t>WARNING</t>
+          <t>BELOW</t>
         </is>
       </c>
     </row>
@@ -15999,7 +15999,7 @@
       </c>
       <c r="AB124" t="inlineStr">
         <is>
-          <t>WARNING</t>
+          <t>BELOW</t>
         </is>
       </c>
     </row>
@@ -16125,7 +16125,7 @@
       </c>
       <c r="AB125" t="inlineStr">
         <is>
-          <t>WARNING</t>
+          <t>BELOW</t>
         </is>
       </c>
     </row>
@@ -16251,7 +16251,7 @@
       </c>
       <c r="AB126" t="inlineStr">
         <is>
-          <t>EXPECTED</t>
+          <t>ABOVE</t>
         </is>
       </c>
     </row>
@@ -16377,7 +16377,7 @@
       </c>
       <c r="AB127" t="inlineStr">
         <is>
-          <t>EXPECTED</t>
+          <t>ABOVE</t>
         </is>
       </c>
     </row>
@@ -16503,7 +16503,7 @@
       </c>
       <c r="AB128" t="inlineStr">
         <is>
-          <t>WARNING</t>
+          <t>BELOW</t>
         </is>
       </c>
     </row>
@@ -16629,7 +16629,7 @@
       </c>
       <c r="AB129" t="inlineStr">
         <is>
-          <t>WARNING</t>
+          <t>BELOW</t>
         </is>
       </c>
     </row>
@@ -16755,7 +16755,7 @@
       </c>
       <c r="AB130" t="inlineStr">
         <is>
-          <t>EXPECTED</t>
+          <t>ABOVE</t>
         </is>
       </c>
     </row>
@@ -16881,7 +16881,7 @@
       </c>
       <c r="AB131" t="inlineStr">
         <is>
-          <t>EXPECTED</t>
+          <t>ABOVE</t>
         </is>
       </c>
     </row>
@@ -17007,7 +17007,7 @@
       </c>
       <c r="AB132" t="inlineStr">
         <is>
-          <t>EXPECTED</t>
+          <t>ABOVE</t>
         </is>
       </c>
     </row>
@@ -17133,7 +17133,7 @@
       </c>
       <c r="AB133" t="inlineStr">
         <is>
-          <t>WARNING</t>
+          <t>BELOW</t>
         </is>
       </c>
     </row>
@@ -17259,7 +17259,7 @@
       </c>
       <c r="AB134" t="inlineStr">
         <is>
-          <t>WARNING</t>
+          <t>BELOW</t>
         </is>
       </c>
     </row>
@@ -17385,7 +17385,7 @@
       </c>
       <c r="AB135" t="inlineStr">
         <is>
-          <t>WARNING</t>
+          <t>BELOW</t>
         </is>
       </c>
     </row>
@@ -17511,7 +17511,7 @@
       </c>
       <c r="AB136" t="inlineStr">
         <is>
-          <t>WARNING</t>
+          <t>BELOW</t>
         </is>
       </c>
     </row>
@@ -17637,7 +17637,7 @@
       </c>
       <c r="AB137" t="inlineStr">
         <is>
-          <t>EXPECTED</t>
+          <t>ABOVE</t>
         </is>
       </c>
     </row>
@@ -17763,7 +17763,7 @@
       </c>
       <c r="AB138" t="inlineStr">
         <is>
-          <t>WARNING</t>
+          <t>BELOW</t>
         </is>
       </c>
     </row>
@@ -17889,7 +17889,7 @@
       </c>
       <c r="AB139" t="inlineStr">
         <is>
-          <t>EXPECTED</t>
+          <t>ABOVE</t>
         </is>
       </c>
     </row>
@@ -18015,7 +18015,7 @@
       </c>
       <c r="AB140" t="inlineStr">
         <is>
-          <t>EXPECTED</t>
+          <t>ABOVE</t>
         </is>
       </c>
     </row>
@@ -18141,7 +18141,7 @@
       </c>
       <c r="AB141" t="inlineStr">
         <is>
-          <t>WARNING</t>
+          <t>BELOW</t>
         </is>
       </c>
     </row>
@@ -18267,7 +18267,7 @@
       </c>
       <c r="AB142" t="inlineStr">
         <is>
-          <t>EXPECTED</t>
+          <t>ABOVE</t>
         </is>
       </c>
     </row>
@@ -18393,7 +18393,7 @@
       </c>
       <c r="AB143" t="inlineStr">
         <is>
-          <t>EXPECTED</t>
+          <t>ABOVE</t>
         </is>
       </c>
     </row>
@@ -18519,7 +18519,7 @@
       </c>
       <c r="AB144" t="inlineStr">
         <is>
-          <t>WARNING</t>
+          <t>BELOW</t>
         </is>
       </c>
     </row>
@@ -18645,7 +18645,7 @@
       </c>
       <c r="AB145" t="inlineStr">
         <is>
-          <t>EXPECTED</t>
+          <t>ABOVE</t>
         </is>
       </c>
     </row>
@@ -18771,7 +18771,7 @@
       </c>
       <c r="AB146" t="inlineStr">
         <is>
-          <t>WARNING</t>
+          <t>BELOW</t>
         </is>
       </c>
     </row>
@@ -18897,7 +18897,7 @@
       </c>
       <c r="AB147" t="inlineStr">
         <is>
-          <t>EXPECTED</t>
+          <t>ABOVE</t>
         </is>
       </c>
     </row>
@@ -19023,7 +19023,7 @@
       </c>
       <c r="AB148" t="inlineStr">
         <is>
-          <t>WARNING</t>
+          <t>BELOW</t>
         </is>
       </c>
     </row>
@@ -19149,7 +19149,7 @@
       </c>
       <c r="AB149" t="inlineStr">
         <is>
-          <t>WARNING</t>
+          <t>BELOW</t>
         </is>
       </c>
     </row>
@@ -19275,7 +19275,7 @@
       </c>
       <c r="AB150" t="inlineStr">
         <is>
-          <t>EXPECTED</t>
+          <t>ABOVE</t>
         </is>
       </c>
     </row>
@@ -19401,7 +19401,7 @@
       </c>
       <c r="AB151" t="inlineStr">
         <is>
-          <t>EXPECTED</t>
+          <t>ABOVE</t>
         </is>
       </c>
     </row>
@@ -19527,7 +19527,7 @@
       </c>
       <c r="AB152" t="inlineStr">
         <is>
-          <t>EXPECTED</t>
+          <t>ABOVE</t>
         </is>
       </c>
     </row>
@@ -19653,7 +19653,7 @@
       </c>
       <c r="AB153" t="inlineStr">
         <is>
-          <t>WARNING</t>
+          <t>BELOW</t>
         </is>
       </c>
     </row>
@@ -19779,7 +19779,7 @@
       </c>
       <c r="AB154" t="inlineStr">
         <is>
-          <t>WARNING</t>
+          <t>BELOW</t>
         </is>
       </c>
     </row>
@@ -19905,7 +19905,7 @@
       </c>
       <c r="AB155" t="inlineStr">
         <is>
-          <t>EXPECTED</t>
+          <t>ABOVE</t>
         </is>
       </c>
     </row>
@@ -20031,7 +20031,7 @@
       </c>
       <c r="AB156" t="inlineStr">
         <is>
-          <t>EXPECTED</t>
+          <t>ABOVE</t>
         </is>
       </c>
     </row>
@@ -20157,7 +20157,7 @@
       </c>
       <c r="AB157" t="inlineStr">
         <is>
-          <t>EXPECTED</t>
+          <t>ABOVE</t>
         </is>
       </c>
     </row>
@@ -20283,7 +20283,7 @@
       </c>
       <c r="AB158" t="inlineStr">
         <is>
-          <t>WARNING</t>
+          <t>BELOW</t>
         </is>
       </c>
     </row>
@@ -20409,7 +20409,7 @@
       </c>
       <c r="AB159" t="inlineStr">
         <is>
-          <t>EXPECTED</t>
+          <t>ABOVE</t>
         </is>
       </c>
     </row>
@@ -20535,7 +20535,7 @@
       </c>
       <c r="AB160" t="inlineStr">
         <is>
-          <t>EXPECTED</t>
+          <t>ABOVE</t>
         </is>
       </c>
     </row>
@@ -20661,7 +20661,7 @@
       </c>
       <c r="AB161" t="inlineStr">
         <is>
-          <t>WARNING</t>
+          <t>BELOW</t>
         </is>
       </c>
     </row>
@@ -20787,7 +20787,7 @@
       </c>
       <c r="AB162" t="inlineStr">
         <is>
-          <t>WARNING</t>
+          <t>BELOW</t>
         </is>
       </c>
     </row>
@@ -20913,7 +20913,7 @@
       </c>
       <c r="AB163" t="inlineStr">
         <is>
-          <t>EXPECTED</t>
+          <t>ABOVE</t>
         </is>
       </c>
     </row>
@@ -21039,7 +21039,7 @@
       </c>
       <c r="AB164" t="inlineStr">
         <is>
-          <t>EXPECTED</t>
+          <t>ABOVE</t>
         </is>
       </c>
     </row>
@@ -21165,7 +21165,7 @@
       </c>
       <c r="AB165" t="inlineStr">
         <is>
-          <t>WARNING</t>
+          <t>BELOW</t>
         </is>
       </c>
     </row>
@@ -21291,7 +21291,7 @@
       </c>
       <c r="AB166" t="inlineStr">
         <is>
-          <t>WARNING</t>
+          <t>BELOW</t>
         </is>
       </c>
     </row>
@@ -21417,7 +21417,7 @@
       </c>
       <c r="AB167" t="inlineStr">
         <is>
-          <t>EXPECTED</t>
+          <t>ABOVE</t>
         </is>
       </c>
     </row>
@@ -21543,7 +21543,7 @@
       </c>
       <c r="AB168" t="inlineStr">
         <is>
-          <t>WARNING</t>
+          <t>BELOW</t>
         </is>
       </c>
     </row>
@@ -21669,7 +21669,7 @@
       </c>
       <c r="AB169" t="inlineStr">
         <is>
-          <t>WARNING</t>
+          <t>BELOW</t>
         </is>
       </c>
     </row>
@@ -21795,7 +21795,7 @@
       </c>
       <c r="AB170" t="inlineStr">
         <is>
-          <t>WARNING</t>
+          <t>BELOW</t>
         </is>
       </c>
     </row>
@@ -21921,7 +21921,7 @@
       </c>
       <c r="AB171" t="inlineStr">
         <is>
-          <t>EXPECTED</t>
+          <t>ABOVE</t>
         </is>
       </c>
     </row>
@@ -22047,7 +22047,7 @@
       </c>
       <c r="AB172" t="inlineStr">
         <is>
-          <t>WARNING</t>
+          <t>BELOW</t>
         </is>
       </c>
     </row>
@@ -22173,7 +22173,7 @@
       </c>
       <c r="AB173" t="inlineStr">
         <is>
-          <t>WARNING</t>
+          <t>BELOW</t>
         </is>
       </c>
     </row>
@@ -22299,7 +22299,7 @@
       </c>
       <c r="AB174" t="inlineStr">
         <is>
-          <t>EXPECTED</t>
+          <t>ABOVE</t>
         </is>
       </c>
     </row>
@@ -22425,7 +22425,7 @@
       </c>
       <c r="AB175" t="inlineStr">
         <is>
-          <t>EXPECTED</t>
+          <t>ABOVE</t>
         </is>
       </c>
     </row>
@@ -22551,7 +22551,7 @@
       </c>
       <c r="AB176" t="inlineStr">
         <is>
-          <t>WARNING</t>
+          <t>BELOW</t>
         </is>
       </c>
     </row>
@@ -22677,7 +22677,7 @@
       </c>
       <c r="AB177" t="inlineStr">
         <is>
-          <t>WARNING</t>
+          <t>BELOW</t>
         </is>
       </c>
     </row>
@@ -22803,7 +22803,7 @@
       </c>
       <c r="AB178" t="inlineStr">
         <is>
-          <t>WARNING</t>
+          <t>BELOW</t>
         </is>
       </c>
     </row>
@@ -22929,7 +22929,7 @@
       </c>
       <c r="AB179" t="inlineStr">
         <is>
-          <t>WARNING</t>
+          <t>BELOW</t>
         </is>
       </c>
     </row>
@@ -23053,7 +23053,7 @@
       </c>
       <c r="AB180" t="inlineStr">
         <is>
-          <t>EXPECTED</t>
+          <t>ABOVE</t>
         </is>
       </c>
     </row>
@@ -23179,7 +23179,7 @@
       </c>
       <c r="AB181" t="inlineStr">
         <is>
-          <t>EXPECTED</t>
+          <t>ABOVE</t>
         </is>
       </c>
     </row>
@@ -23305,7 +23305,7 @@
       </c>
       <c r="AB182" t="inlineStr">
         <is>
-          <t>WARNING</t>
+          <t>BELOW</t>
         </is>
       </c>
     </row>
@@ -23431,7 +23431,7 @@
       </c>
       <c r="AB183" t="inlineStr">
         <is>
-          <t>WARNING</t>
+          <t>BELOW</t>
         </is>
       </c>
     </row>
@@ -23557,7 +23557,7 @@
       </c>
       <c r="AB184" t="inlineStr">
         <is>
-          <t>EXPECTED</t>
+          <t>ABOVE</t>
         </is>
       </c>
     </row>
@@ -23683,7 +23683,7 @@
       </c>
       <c r="AB185" t="inlineStr">
         <is>
-          <t>WARNING</t>
+          <t>BELOW</t>
         </is>
       </c>
     </row>
@@ -23809,7 +23809,7 @@
       </c>
       <c r="AB186" t="inlineStr">
         <is>
-          <t>WARNING</t>
+          <t>BELOW</t>
         </is>
       </c>
     </row>
@@ -23935,7 +23935,7 @@
       </c>
       <c r="AB187" t="inlineStr">
         <is>
-          <t>EXPECTED</t>
+          <t>ABOVE</t>
         </is>
       </c>
     </row>
@@ -24061,7 +24061,7 @@
       </c>
       <c r="AB188" t="inlineStr">
         <is>
-          <t>EXPECTED</t>
+          <t>ABOVE</t>
         </is>
       </c>
     </row>
@@ -24187,7 +24187,7 @@
       </c>
       <c r="AB189" t="inlineStr">
         <is>
-          <t>EXPECTED</t>
+          <t>ABOVE</t>
         </is>
       </c>
     </row>
@@ -24313,7 +24313,7 @@
       </c>
       <c r="AB190" t="inlineStr">
         <is>
-          <t>EXPECTED</t>
+          <t>ABOVE</t>
         </is>
       </c>
     </row>
@@ -24439,7 +24439,7 @@
       </c>
       <c r="AB191" t="inlineStr">
         <is>
-          <t>WARNING</t>
+          <t>BELOW</t>
         </is>
       </c>
     </row>
@@ -24565,7 +24565,7 @@
       </c>
       <c r="AB192" t="inlineStr">
         <is>
-          <t>EXPECTED</t>
+          <t>ABOVE</t>
         </is>
       </c>
     </row>
@@ -24691,7 +24691,7 @@
       </c>
       <c r="AB193" t="inlineStr">
         <is>
-          <t>EXPECTED</t>
+          <t>ABOVE</t>
         </is>
       </c>
     </row>
@@ -24817,7 +24817,7 @@
       </c>
       <c r="AB194" t="inlineStr">
         <is>
-          <t>EXPECTED</t>
+          <t>ABOVE</t>
         </is>
       </c>
     </row>
@@ -24943,7 +24943,7 @@
       </c>
       <c r="AB195" t="inlineStr">
         <is>
-          <t>WARNING</t>
+          <t>BELOW</t>
         </is>
       </c>
     </row>
@@ -25069,7 +25069,7 @@
       </c>
       <c r="AB196" t="inlineStr">
         <is>
-          <t>WARNING</t>
+          <t>BELOW</t>
         </is>
       </c>
     </row>
@@ -25195,7 +25195,7 @@
       </c>
       <c r="AB197" t="inlineStr">
         <is>
-          <t>EXPECTED</t>
+          <t>ABOVE</t>
         </is>
       </c>
     </row>
@@ -25321,7 +25321,7 @@
       </c>
       <c r="AB198" t="inlineStr">
         <is>
-          <t>WARNING</t>
+          <t>BELOW</t>
         </is>
       </c>
     </row>
@@ -25447,7 +25447,7 @@
       </c>
       <c r="AB199" t="inlineStr">
         <is>
-          <t>WARNING</t>
+          <t>BELOW</t>
         </is>
       </c>
     </row>
@@ -25573,7 +25573,7 @@
       </c>
       <c r="AB200" t="inlineStr">
         <is>
-          <t>WARNING</t>
+          <t>BELOW</t>
         </is>
       </c>
     </row>
@@ -25699,7 +25699,7 @@
       </c>
       <c r="AB201" t="inlineStr">
         <is>
-          <t>WARNING</t>
+          <t>BELOW</t>
         </is>
       </c>
     </row>
@@ -25825,7 +25825,7 @@
       </c>
       <c r="AB202" t="inlineStr">
         <is>
-          <t>EXPECTED</t>
+          <t>ABOVE</t>
         </is>
       </c>
     </row>
@@ -25951,7 +25951,7 @@
       </c>
       <c r="AB203" t="inlineStr">
         <is>
-          <t>WARNING</t>
+          <t>BELOW</t>
         </is>
       </c>
     </row>
@@ -26077,7 +26077,7 @@
       </c>
       <c r="AB204" t="inlineStr">
         <is>
-          <t>EXPECTED</t>
+          <t>ABOVE</t>
         </is>
       </c>
     </row>
@@ -26203,7 +26203,7 @@
       </c>
       <c r="AB205" t="inlineStr">
         <is>
-          <t>EXPECTED</t>
+          <t>ABOVE</t>
         </is>
       </c>
     </row>
@@ -26329,7 +26329,7 @@
       </c>
       <c r="AB206" t="inlineStr">
         <is>
-          <t>WARNING</t>
+          <t>BELOW</t>
         </is>
       </c>
     </row>
@@ -26455,7 +26455,7 @@
       </c>
       <c r="AB207" t="inlineStr">
         <is>
-          <t>EXPECTED</t>
+          <t>ABOVE</t>
         </is>
       </c>
     </row>
@@ -26581,7 +26581,7 @@
       </c>
       <c r="AB208" t="inlineStr">
         <is>
-          <t>WARNING</t>
+          <t>BELOW</t>
         </is>
       </c>
     </row>
@@ -26707,7 +26707,7 @@
       </c>
       <c r="AB209" t="inlineStr">
         <is>
-          <t>EXPECTED</t>
+          <t>ABOVE</t>
         </is>
       </c>
     </row>
@@ -26833,7 +26833,7 @@
       </c>
       <c r="AB210" t="inlineStr">
         <is>
-          <t>EXPECTED</t>
+          <t>ABOVE</t>
         </is>
       </c>
     </row>
@@ -26959,7 +26959,7 @@
       </c>
       <c r="AB211" t="inlineStr">
         <is>
-          <t>EXPECTED</t>
+          <t>ABOVE</t>
         </is>
       </c>
     </row>
@@ -27085,7 +27085,7 @@
       </c>
       <c r="AB212" t="inlineStr">
         <is>
-          <t>EXPECTED</t>
+          <t>ABOVE</t>
         </is>
       </c>
     </row>
@@ -27211,7 +27211,7 @@
       </c>
       <c r="AB213" t="inlineStr">
         <is>
-          <t>EXPECTED</t>
+          <t>ABOVE</t>
         </is>
       </c>
     </row>
@@ -27337,7 +27337,7 @@
       </c>
       <c r="AB214" t="inlineStr">
         <is>
-          <t>WARNING</t>
+          <t>BELOW</t>
         </is>
       </c>
     </row>
@@ -27463,7 +27463,7 @@
       </c>
       <c r="AB215" t="inlineStr">
         <is>
-          <t>WARNING</t>
+          <t>BELOW</t>
         </is>
       </c>
     </row>
@@ -27589,7 +27589,7 @@
       </c>
       <c r="AB216" t="inlineStr">
         <is>
-          <t>WARNING</t>
+          <t>BELOW</t>
         </is>
       </c>
     </row>
@@ -27715,7 +27715,7 @@
       </c>
       <c r="AB217" t="inlineStr">
         <is>
-          <t>EXPECTED</t>
+          <t>ABOVE</t>
         </is>
       </c>
     </row>
@@ -27841,7 +27841,7 @@
       </c>
       <c r="AB218" t="inlineStr">
         <is>
-          <t>WARNING</t>
+          <t>BELOW</t>
         </is>
       </c>
     </row>
@@ -27967,7 +27967,7 @@
       </c>
       <c r="AB219" t="inlineStr">
         <is>
-          <t>WARNING</t>
+          <t>BELOW</t>
         </is>
       </c>
     </row>
@@ -28093,7 +28093,7 @@
       </c>
       <c r="AB220" t="inlineStr">
         <is>
-          <t>EXPECTED</t>
+          <t>ABOVE</t>
         </is>
       </c>
     </row>
@@ -28219,7 +28219,7 @@
       </c>
       <c r="AB221" t="inlineStr">
         <is>
-          <t>EXPECTED</t>
+          <t>ABOVE</t>
         </is>
       </c>
     </row>
@@ -28345,7 +28345,7 @@
       </c>
       <c r="AB222" t="inlineStr">
         <is>
-          <t>EXPECTED</t>
+          <t>ABOVE</t>
         </is>
       </c>
     </row>
@@ -28471,7 +28471,7 @@
       </c>
       <c r="AB223" t="inlineStr">
         <is>
-          <t>EXPECTED</t>
+          <t>ABOVE</t>
         </is>
       </c>
     </row>
@@ -28597,7 +28597,7 @@
       </c>
       <c r="AB224" t="inlineStr">
         <is>
-          <t>EXPECTED</t>
+          <t>ABOVE</t>
         </is>
       </c>
     </row>
@@ -28723,7 +28723,7 @@
       </c>
       <c r="AB225" t="inlineStr">
         <is>
-          <t>EXPECTED</t>
+          <t>ABOVE</t>
         </is>
       </c>
     </row>
@@ -28849,7 +28849,7 @@
       </c>
       <c r="AB226" t="inlineStr">
         <is>
-          <t>WARNING</t>
+          <t>BELOW</t>
         </is>
       </c>
     </row>
@@ -28975,7 +28975,7 @@
       </c>
       <c r="AB227" t="inlineStr">
         <is>
-          <t>WARNING</t>
+          <t>BELOW</t>
         </is>
       </c>
     </row>
@@ -29101,7 +29101,7 @@
       </c>
       <c r="AB228" t="inlineStr">
         <is>
-          <t>WARNING</t>
+          <t>BELOW</t>
         </is>
       </c>
     </row>
@@ -29227,7 +29227,7 @@
       </c>
       <c r="AB229" t="inlineStr">
         <is>
-          <t>WARNING</t>
+          <t>BELOW</t>
         </is>
       </c>
     </row>
@@ -29353,7 +29353,7 @@
       </c>
       <c r="AB230" t="inlineStr">
         <is>
-          <t>EXPECTED</t>
+          <t>ABOVE</t>
         </is>
       </c>
     </row>
@@ -29479,7 +29479,7 @@
       </c>
       <c r="AB231" t="inlineStr">
         <is>
-          <t>EXPECTED</t>
+          <t>ABOVE</t>
         </is>
       </c>
     </row>
@@ -29605,7 +29605,7 @@
       </c>
       <c r="AB232" t="inlineStr">
         <is>
-          <t>WARNING</t>
+          <t>BELOW</t>
         </is>
       </c>
     </row>
@@ -29731,7 +29731,7 @@
       </c>
       <c r="AB233" t="inlineStr">
         <is>
-          <t>EXPECTED</t>
+          <t>ABOVE</t>
         </is>
       </c>
     </row>
@@ -29857,7 +29857,7 @@
       </c>
       <c r="AB234" t="inlineStr">
         <is>
-          <t>WARNING</t>
+          <t>BELOW</t>
         </is>
       </c>
     </row>
@@ -29983,7 +29983,7 @@
       </c>
       <c r="AB235" t="inlineStr">
         <is>
-          <t>EXPECTED</t>
+          <t>ABOVE</t>
         </is>
       </c>
     </row>
@@ -30109,7 +30109,7 @@
       </c>
       <c r="AB236" t="inlineStr">
         <is>
-          <t>EXPECTED</t>
+          <t>ABOVE</t>
         </is>
       </c>
     </row>
@@ -30235,7 +30235,7 @@
       </c>
       <c r="AB237" t="inlineStr">
         <is>
-          <t>EXPECTED</t>
+          <t>ABOVE</t>
         </is>
       </c>
     </row>
@@ -30361,7 +30361,7 @@
       </c>
       <c r="AB238" t="inlineStr">
         <is>
-          <t>EXPECTED</t>
+          <t>ABOVE</t>
         </is>
       </c>
     </row>
@@ -30487,7 +30487,7 @@
       </c>
       <c r="AB239" t="inlineStr">
         <is>
-          <t>EXPECTED</t>
+          <t>ABOVE</t>
         </is>
       </c>
     </row>
@@ -30611,7 +30611,7 @@
       </c>
       <c r="AB240" t="inlineStr">
         <is>
-          <t>EXPECTED</t>
+          <t>ABOVE</t>
         </is>
       </c>
     </row>
@@ -30737,7 +30737,7 @@
       </c>
       <c r="AB241" t="inlineStr">
         <is>
-          <t>EXPECTED</t>
+          <t>ABOVE</t>
         </is>
       </c>
     </row>
@@ -30863,7 +30863,7 @@
       </c>
       <c r="AB242" t="inlineStr">
         <is>
-          <t>EXPECTED</t>
+          <t>ABOVE</t>
         </is>
       </c>
     </row>
@@ -30989,7 +30989,7 @@
       </c>
       <c r="AB243" t="inlineStr">
         <is>
-          <t>EXPECTED</t>
+          <t>ABOVE</t>
         </is>
       </c>
     </row>
@@ -31115,7 +31115,7 @@
       </c>
       <c r="AB244" t="inlineStr">
         <is>
-          <t>WARNING</t>
+          <t>BELOW</t>
         </is>
       </c>
     </row>
@@ -31241,7 +31241,7 @@
       </c>
       <c r="AB245" t="inlineStr">
         <is>
-          <t>WARNING</t>
+          <t>BELOW</t>
         </is>
       </c>
     </row>
@@ -31367,7 +31367,7 @@
       </c>
       <c r="AB246" t="inlineStr">
         <is>
-          <t>EXPECTED</t>
+          <t>ABOVE</t>
         </is>
       </c>
     </row>
@@ -31493,7 +31493,7 @@
       </c>
       <c r="AB247" t="inlineStr">
         <is>
-          <t>EXPECTED</t>
+          <t>ABOVE</t>
         </is>
       </c>
     </row>
@@ -31619,7 +31619,7 @@
       </c>
       <c r="AB248" t="inlineStr">
         <is>
-          <t>WARNING</t>
+          <t>BELOW</t>
         </is>
       </c>
     </row>
@@ -31745,7 +31745,7 @@
       </c>
       <c r="AB249" t="inlineStr">
         <is>
-          <t>EXPECTED</t>
+          <t>ABOVE</t>
         </is>
       </c>
     </row>
@@ -31871,7 +31871,7 @@
       </c>
       <c r="AB250" t="inlineStr">
         <is>
-          <t>EXPECTED</t>
+          <t>ABOVE</t>
         </is>
       </c>
     </row>
@@ -31997,7 +31997,7 @@
       </c>
       <c r="AB251" t="inlineStr">
         <is>
-          <t>EXPECTED</t>
+          <t>ABOVE</t>
         </is>
       </c>
     </row>
@@ -32123,7 +32123,7 @@
       </c>
       <c r="AB252" t="inlineStr">
         <is>
-          <t>WARNING</t>
+          <t>BELOW</t>
         </is>
       </c>
     </row>
@@ -32249,7 +32249,7 @@
       </c>
       <c r="AB253" t="inlineStr">
         <is>
-          <t>WARNING</t>
+          <t>BELOW</t>
         </is>
       </c>
     </row>
@@ -32375,7 +32375,7 @@
       </c>
       <c r="AB254" t="inlineStr">
         <is>
-          <t>EXPECTED</t>
+          <t>ABOVE</t>
         </is>
       </c>
     </row>
@@ -32501,7 +32501,7 @@
       </c>
       <c r="AB255" t="inlineStr">
         <is>
-          <t>WARNING</t>
+          <t>BELOW</t>
         </is>
       </c>
     </row>
@@ -32627,7 +32627,7 @@
       </c>
       <c r="AB256" t="inlineStr">
         <is>
-          <t>EXPECTED</t>
+          <t>ABOVE</t>
         </is>
       </c>
     </row>
@@ -32753,7 +32753,7 @@
       </c>
       <c r="AB257" t="inlineStr">
         <is>
-          <t>EXPECTED</t>
+          <t>ABOVE</t>
         </is>
       </c>
     </row>
@@ -32879,7 +32879,7 @@
       </c>
       <c r="AB258" t="inlineStr">
         <is>
-          <t>EXPECTED</t>
+          <t>ABOVE</t>
         </is>
       </c>
     </row>
@@ -33005,7 +33005,7 @@
       </c>
       <c r="AB259" t="inlineStr">
         <is>
-          <t>WARNING</t>
+          <t>BELOW</t>
         </is>
       </c>
     </row>
@@ -33131,7 +33131,7 @@
       </c>
       <c r="AB260" t="inlineStr">
         <is>
-          <t>EXPECTED</t>
+          <t>ABOVE</t>
         </is>
       </c>
     </row>
@@ -33257,7 +33257,7 @@
       </c>
       <c r="AB261" t="inlineStr">
         <is>
-          <t>WARNING</t>
+          <t>BELOW</t>
         </is>
       </c>
     </row>
@@ -33383,7 +33383,7 @@
       </c>
       <c r="AB262" t="inlineStr">
         <is>
-          <t>EXPECTED</t>
+          <t>ABOVE</t>
         </is>
       </c>
     </row>
@@ -33509,7 +33509,7 @@
       </c>
       <c r="AB263" t="inlineStr">
         <is>
-          <t>EXPECTED</t>
+          <t>ABOVE</t>
         </is>
       </c>
     </row>
@@ -33635,7 +33635,7 @@
       </c>
       <c r="AB264" t="inlineStr">
         <is>
-          <t>WARNING</t>
+          <t>BELOW</t>
         </is>
       </c>
     </row>
@@ -33761,7 +33761,7 @@
       </c>
       <c r="AB265" t="inlineStr">
         <is>
-          <t>WARNING</t>
+          <t>BELOW</t>
         </is>
       </c>
     </row>
@@ -33887,7 +33887,7 @@
       </c>
       <c r="AB266" t="inlineStr">
         <is>
-          <t>WARNING</t>
+          <t>BELOW</t>
         </is>
       </c>
     </row>
@@ -34013,7 +34013,7 @@
       </c>
       <c r="AB267" t="inlineStr">
         <is>
-          <t>EXPECTED</t>
+          <t>ABOVE</t>
         </is>
       </c>
     </row>
@@ -34139,7 +34139,7 @@
       </c>
       <c r="AB268" t="inlineStr">
         <is>
-          <t>EXPECTED</t>
+          <t>ABOVE</t>
         </is>
       </c>
     </row>
@@ -34265,7 +34265,7 @@
       </c>
       <c r="AB269" t="inlineStr">
         <is>
-          <t>EXPECTED</t>
+          <t>ABOVE</t>
         </is>
       </c>
     </row>
@@ -34391,7 +34391,7 @@
       </c>
       <c r="AB270" t="inlineStr">
         <is>
-          <t>EXPECTED</t>
+          <t>ABOVE</t>
         </is>
       </c>
     </row>
@@ -34517,7 +34517,7 @@
       </c>
       <c r="AB271" t="inlineStr">
         <is>
-          <t>EXPECTED</t>
+          <t>ABOVE</t>
         </is>
       </c>
     </row>
@@ -34643,7 +34643,7 @@
       </c>
       <c r="AB272" t="inlineStr">
         <is>
-          <t>EXPECTED</t>
+          <t>ABOVE</t>
         </is>
       </c>
     </row>
@@ -34769,7 +34769,7 @@
       </c>
       <c r="AB273" t="inlineStr">
         <is>
-          <t>EXPECTED</t>
+          <t>ABOVE</t>
         </is>
       </c>
     </row>
@@ -34895,7 +34895,7 @@
       </c>
       <c r="AB274" t="inlineStr">
         <is>
-          <t>EXPECTED</t>
+          <t>ABOVE</t>
         </is>
       </c>
     </row>
@@ -35021,7 +35021,7 @@
       </c>
       <c r="AB275" t="inlineStr">
         <is>
-          <t>WARNING</t>
+          <t>BELOW</t>
         </is>
       </c>
     </row>
@@ -35147,7 +35147,7 @@
       </c>
       <c r="AB276" t="inlineStr">
         <is>
-          <t>EXPECTED</t>
+          <t>ABOVE</t>
         </is>
       </c>
     </row>
@@ -35273,7 +35273,7 @@
       </c>
       <c r="AB277" t="inlineStr">
         <is>
-          <t>WARNING</t>
+          <t>BELOW</t>
         </is>
       </c>
     </row>
@@ -35399,7 +35399,7 @@
       </c>
       <c r="AB278" t="inlineStr">
         <is>
-          <t>EXPECTED</t>
+          <t>ABOVE</t>
         </is>
       </c>
     </row>
@@ -35525,7 +35525,7 @@
       </c>
       <c r="AB279" t="inlineStr">
         <is>
-          <t>EXPECTED</t>
+          <t>ABOVE</t>
         </is>
       </c>
     </row>
@@ -35651,7 +35651,7 @@
       </c>
       <c r="AB280" t="inlineStr">
         <is>
-          <t>WARNING</t>
+          <t>BELOW</t>
         </is>
       </c>
     </row>
@@ -35777,7 +35777,7 @@
       </c>
       <c r="AB281" t="inlineStr">
         <is>
-          <t>EXPECTED</t>
+          <t>ABOVE</t>
         </is>
       </c>
     </row>
@@ -35903,7 +35903,7 @@
       </c>
       <c r="AB282" t="inlineStr">
         <is>
-          <t>EXPECTED</t>
+          <t>ABOVE</t>
         </is>
       </c>
     </row>
@@ -36029,7 +36029,7 @@
       </c>
       <c r="AB283" t="inlineStr">
         <is>
-          <t>WARNING</t>
+          <t>BELOW</t>
         </is>
       </c>
     </row>
@@ -36155,7 +36155,7 @@
       </c>
       <c r="AB284" t="inlineStr">
         <is>
-          <t>EXPECTED</t>
+          <t>ABOVE</t>
         </is>
       </c>
     </row>
@@ -36281,7 +36281,7 @@
       </c>
       <c r="AB285" t="inlineStr">
         <is>
-          <t>EXPECTED</t>
+          <t>ABOVE</t>
         </is>
       </c>
     </row>
@@ -36407,7 +36407,7 @@
       </c>
       <c r="AB286" t="inlineStr">
         <is>
-          <t>EXPECTED</t>
+          <t>ABOVE</t>
         </is>
       </c>
     </row>
@@ -36533,7 +36533,7 @@
       </c>
       <c r="AB287" t="inlineStr">
         <is>
-          <t>WARNING</t>
+          <t>BELOW</t>
         </is>
       </c>
     </row>
@@ -36659,7 +36659,7 @@
       </c>
       <c r="AB288" t="inlineStr">
         <is>
-          <t>WARNING</t>
+          <t>BELOW</t>
         </is>
       </c>
     </row>
@@ -36785,7 +36785,7 @@
       </c>
       <c r="AB289" t="inlineStr">
         <is>
-          <t>WARNING</t>
+          <t>BELOW</t>
         </is>
       </c>
     </row>
@@ -36911,7 +36911,7 @@
       </c>
       <c r="AB290" t="inlineStr">
         <is>
-          <t>WARNING</t>
+          <t>BELOW</t>
         </is>
       </c>
     </row>
@@ -37037,7 +37037,7 @@
       </c>
       <c r="AB291" t="inlineStr">
         <is>
-          <t>WARNING</t>
+          <t>BELOW</t>
         </is>
       </c>
     </row>
@@ -37163,7 +37163,7 @@
       </c>
       <c r="AB292" t="inlineStr">
         <is>
-          <t>WARNING</t>
+          <t>BELOW</t>
         </is>
       </c>
     </row>
@@ -37289,7 +37289,7 @@
       </c>
       <c r="AB293" t="inlineStr">
         <is>
-          <t>WARNING</t>
+          <t>BELOW</t>
         </is>
       </c>
     </row>
@@ -37415,7 +37415,7 @@
       </c>
       <c r="AB294" t="inlineStr">
         <is>
-          <t>EXPECTED</t>
+          <t>ABOVE</t>
         </is>
       </c>
     </row>
@@ -37541,7 +37541,7 @@
       </c>
       <c r="AB295" t="inlineStr">
         <is>
-          <t>EXPECTED</t>
+          <t>ABOVE</t>
         </is>
       </c>
     </row>
@@ -37667,7 +37667,7 @@
       </c>
       <c r="AB296" t="inlineStr">
         <is>
-          <t>EXPECTED</t>
+          <t>ABOVE</t>
         </is>
       </c>
     </row>
@@ -37793,7 +37793,7 @@
       </c>
       <c r="AB297" t="inlineStr">
         <is>
-          <t>EXPECTED</t>
+          <t>ABOVE</t>
         </is>
       </c>
     </row>
@@ -37919,7 +37919,7 @@
       </c>
       <c r="AB298" t="inlineStr">
         <is>
-          <t>WARNING</t>
+          <t>BELOW</t>
         </is>
       </c>
     </row>
@@ -38045,7 +38045,7 @@
       </c>
       <c r="AB299" t="inlineStr">
         <is>
-          <t>WARNING</t>
+          <t>BELOW</t>
         </is>
       </c>
     </row>
@@ -38171,7 +38171,7 @@
       </c>
       <c r="AB300" t="inlineStr">
         <is>
-          <t>WARNING</t>
+          <t>BELOW</t>
         </is>
       </c>
     </row>
@@ -38297,7 +38297,7 @@
       </c>
       <c r="AB301" t="inlineStr">
         <is>
-          <t>EXPECTED</t>
+          <t>ABOVE</t>
         </is>
       </c>
     </row>
@@ -38423,7 +38423,7 @@
       </c>
       <c r="AB302" t="inlineStr">
         <is>
-          <t>WARNING</t>
+          <t>BELOW</t>
         </is>
       </c>
     </row>
@@ -38549,7 +38549,7 @@
       </c>
       <c r="AB303" t="inlineStr">
         <is>
-          <t>EXPECTED</t>
+          <t>ABOVE</t>
         </is>
       </c>
     </row>
@@ -38675,7 +38675,7 @@
       </c>
       <c r="AB304" t="inlineStr">
         <is>
-          <t>EXPECTED</t>
+          <t>ABOVE</t>
         </is>
       </c>
     </row>
@@ -38801,7 +38801,7 @@
       </c>
       <c r="AB305" t="inlineStr">
         <is>
-          <t>EXPECTED</t>
+          <t>ABOVE</t>
         </is>
       </c>
     </row>
@@ -38927,7 +38927,7 @@
       </c>
       <c r="AB306" t="inlineStr">
         <is>
-          <t>EXPECTED</t>
+          <t>ABOVE</t>
         </is>
       </c>
     </row>
@@ -39053,7 +39053,7 @@
       </c>
       <c r="AB307" t="inlineStr">
         <is>
-          <t>WARNING</t>
+          <t>BELOW</t>
         </is>
       </c>
     </row>
@@ -39179,7 +39179,7 @@
       </c>
       <c r="AB308" t="inlineStr">
         <is>
-          <t>EXPECTED</t>
+          <t>ABOVE</t>
         </is>
       </c>
     </row>
@@ -39305,7 +39305,7 @@
       </c>
       <c r="AB309" t="inlineStr">
         <is>
-          <t>WARNING</t>
+          <t>BELOW</t>
         </is>
       </c>
     </row>
@@ -39431,7 +39431,7 @@
       </c>
       <c r="AB310" t="inlineStr">
         <is>
-          <t>EXPECTED</t>
+          <t>ABOVE</t>
         </is>
       </c>
     </row>
@@ -39557,7 +39557,7 @@
       </c>
       <c r="AB311" t="inlineStr">
         <is>
-          <t>EXPECTED</t>
+          <t>ABOVE</t>
         </is>
       </c>
     </row>
@@ -39683,7 +39683,7 @@
       </c>
       <c r="AB312" t="inlineStr">
         <is>
-          <t>EXPECTED</t>
+          <t>ABOVE</t>
         </is>
       </c>
     </row>
@@ -39809,7 +39809,7 @@
       </c>
       <c r="AB313" t="inlineStr">
         <is>
-          <t>EXPECTED</t>
+          <t>ABOVE</t>
         </is>
       </c>
     </row>
@@ -39935,7 +39935,7 @@
       </c>
       <c r="AB314" t="inlineStr">
         <is>
-          <t>EXPECTED</t>
+          <t>ABOVE</t>
         </is>
       </c>
     </row>
@@ -40061,7 +40061,7 @@
       </c>
       <c r="AB315" t="inlineStr">
         <is>
-          <t>EXPECTED</t>
+          <t>ABOVE</t>
         </is>
       </c>
     </row>
@@ -40187,7 +40187,7 @@
       </c>
       <c r="AB316" t="inlineStr">
         <is>
-          <t>EXPECTED</t>
+          <t>ABOVE</t>
         </is>
       </c>
     </row>
@@ -40313,7 +40313,7 @@
       </c>
       <c r="AB317" t="inlineStr">
         <is>
-          <t>EXPECTED</t>
+          <t>ABOVE</t>
         </is>
       </c>
     </row>
@@ -40439,7 +40439,7 @@
       </c>
       <c r="AB318" t="inlineStr">
         <is>
-          <t>EXPECTED</t>
+          <t>ABOVE</t>
         </is>
       </c>
     </row>
@@ -40565,7 +40565,7 @@
       </c>
       <c r="AB319" t="inlineStr">
         <is>
-          <t>EXPECTED</t>
+          <t>ABOVE</t>
         </is>
       </c>
     </row>
@@ -40691,7 +40691,7 @@
       </c>
       <c r="AB320" t="inlineStr">
         <is>
-          <t>EXPECTED</t>
+          <t>ABOVE</t>
         </is>
       </c>
     </row>
@@ -40817,7 +40817,7 @@
       </c>
       <c r="AB321" t="inlineStr">
         <is>
-          <t>EXPECTED</t>
+          <t>ABOVE</t>
         </is>
       </c>
     </row>
@@ -40943,7 +40943,7 @@
       </c>
       <c r="AB322" t="inlineStr">
         <is>
-          <t>EXPECTED</t>
+          <t>ABOVE</t>
         </is>
       </c>
     </row>
@@ -41069,7 +41069,7 @@
       </c>
       <c r="AB323" t="inlineStr">
         <is>
-          <t>WARNING</t>
+          <t>BELOW</t>
         </is>
       </c>
     </row>
@@ -41195,7 +41195,7 @@
       </c>
       <c r="AB324" t="inlineStr">
         <is>
-          <t>WARNING</t>
+          <t>BELOW</t>
         </is>
       </c>
     </row>
@@ -41321,7 +41321,7 @@
       </c>
       <c r="AB325" t="inlineStr">
         <is>
-          <t>WARNING</t>
+          <t>BELOW</t>
         </is>
       </c>
     </row>
@@ -41447,7 +41447,7 @@
       </c>
       <c r="AB326" t="inlineStr">
         <is>
-          <t>EXPECTED</t>
+          <t>ABOVE</t>
         </is>
       </c>
     </row>
@@ -41573,7 +41573,7 @@
       </c>
       <c r="AB327" t="inlineStr">
         <is>
-          <t>EXPECTED</t>
+          <t>ABOVE</t>
         </is>
       </c>
     </row>
@@ -41699,7 +41699,7 @@
       </c>
       <c r="AB328" t="inlineStr">
         <is>
-          <t>EXPECTED</t>
+          <t>ABOVE</t>
         </is>
       </c>
     </row>
@@ -41825,7 +41825,7 @@
       </c>
       <c r="AB329" t="inlineStr">
         <is>
-          <t>EXPECTED</t>
+          <t>ABOVE</t>
         </is>
       </c>
     </row>
@@ -41951,7 +41951,7 @@
       </c>
       <c r="AB330" t="inlineStr">
         <is>
-          <t>EXPECTED</t>
+          <t>ABOVE</t>
         </is>
       </c>
     </row>
@@ -42077,7 +42077,7 @@
       </c>
       <c r="AB331" t="inlineStr">
         <is>
-          <t>EXPECTED</t>
+          <t>ABOVE</t>
         </is>
       </c>
     </row>
@@ -42203,7 +42203,7 @@
       </c>
       <c r="AB332" t="inlineStr">
         <is>
-          <t>EXPECTED</t>
+          <t>ABOVE</t>
         </is>
       </c>
     </row>
@@ -42329,7 +42329,7 @@
       </c>
       <c r="AB333" t="inlineStr">
         <is>
-          <t>EXPECTED</t>
+          <t>ABOVE</t>
         </is>
       </c>
     </row>
@@ -42435,7 +42435,7 @@
       </c>
       <c r="X334" t="inlineStr">
         <is>
-          <t>6.455e-01</t>
+          <t>6.456e-01</t>
         </is>
       </c>
       <c r="Y334" t="inlineStr">
@@ -42445,7 +42445,7 @@
       </c>
       <c r="Z334" t="inlineStr">
         <is>
-          <t>6.455e-01</t>
+          <t>6.456e-01</t>
         </is>
       </c>
       <c r="AA334" t="n">
@@ -42453,7 +42453,7 @@
       </c>
       <c r="AB334" t="inlineStr">
         <is>
-          <t>EXPECTED</t>
+          <t>ABOVE</t>
         </is>
       </c>
     </row>
@@ -42577,7 +42577,7 @@
       </c>
       <c r="AB335" t="inlineStr">
         <is>
-          <t>EXPECTED</t>
+          <t>ABOVE</t>
         </is>
       </c>
     </row>
@@ -42703,7 +42703,7 @@
       </c>
       <c r="AB336" t="inlineStr">
         <is>
-          <t>WARNING</t>
+          <t>BELOW</t>
         </is>
       </c>
     </row>
@@ -42827,7 +42827,7 @@
       </c>
       <c r="AB337" t="inlineStr">
         <is>
-          <t>EXPECTED</t>
+          <t>ABOVE</t>
         </is>
       </c>
     </row>
@@ -42953,7 +42953,7 @@
       </c>
       <c r="AB338" t="inlineStr">
         <is>
-          <t>EXPECTED</t>
+          <t>ABOVE</t>
         </is>
       </c>
     </row>
@@ -43079,7 +43079,7 @@
       </c>
       <c r="AB339" t="inlineStr">
         <is>
-          <t>WARNING</t>
+          <t>BELOW</t>
         </is>
       </c>
     </row>
@@ -43205,7 +43205,7 @@
       </c>
       <c r="AB340" t="inlineStr">
         <is>
-          <t>EXPECTED</t>
+          <t>ABOVE</t>
         </is>
       </c>
     </row>
@@ -43331,7 +43331,7 @@
       </c>
       <c r="AB341" t="inlineStr">
         <is>
-          <t>EXPECTED</t>
+          <t>ABOVE</t>
         </is>
       </c>
     </row>
@@ -43457,7 +43457,7 @@
       </c>
       <c r="AB342" t="inlineStr">
         <is>
-          <t>EXPECTED</t>
+          <t>ABOVE</t>
         </is>
       </c>
     </row>
@@ -43583,7 +43583,7 @@
       </c>
       <c r="AB343" t="inlineStr">
         <is>
-          <t>EXPECTED</t>
+          <t>ABOVE</t>
         </is>
       </c>
     </row>
@@ -43709,7 +43709,7 @@
       </c>
       <c r="AB344" t="inlineStr">
         <is>
-          <t>EXPECTED</t>
+          <t>ABOVE</t>
         </is>
       </c>
     </row>
